--- a/ioaConditions/train1P1Block14.xlsx
+++ b/ioaConditions/train1P1Block14.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/18_popata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
-  </si>
-  <si>
-    <t>pngimages/19_burger.png</t>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/14_coffee.png</t>
+  </si>
+  <si>
+    <t>pngimages/94_house.png</t>
   </si>
 </sst>
 </file>

--- a/ioaConditions/train1P1Block14.xlsx
+++ b/ioaConditions/train1P1Block14.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
+    <t>trainingaudio/14_pokoto1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.mp3</t>
   </si>
   <si>
     <t>pngimages/14_coffee.png</t>

--- a/ioaConditions/train1P1Block14.xlsx
+++ b/ioaConditions/train1P1Block14.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/14_pokoto1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.mp3</t>
+    <t>trainingaudio/14_pokoto1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.ogg</t>
   </si>
   <si>
     <t>pngimages/14_coffee.png</t>

--- a/ioaConditions/train1P1Block14.xlsx
+++ b/ioaConditions/train1P1Block14.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/14_pokoto1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.ogg</t>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
   </si>
   <si>
     <t>pngimages/14_coffee.png</t>
